--- a/data_excel/data_2023.xlsx
+++ b/data_excel/data_2023.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F5CD29-F588-4BCA-906B-7195D6D41A32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B517F9-A387-4922-8867-00F31B3D0FF6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,12 +178,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,8 +290,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -302,19 +311,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -326,12 +335,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{534E27C5-80EB-4B53-BF8C-BF4CA87F3B45}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,18 +622,18 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="22" bestFit="1" customWidth="1"/>
@@ -744,11 +754,21 @@
       <c r="B2" s="3">
         <v>4300</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.49590986263312226</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -780,11 +800,21 @@
       <c r="B3" s="3">
         <v>4200</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.49590986263312226</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -816,11 +846,21 @@
       <c r="B4" s="3">
         <v>4150</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.49590986263312226</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -852,11 +892,21 @@
       <c r="B5" s="3">
         <v>4100</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.49590986263312226</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -888,11 +938,21 @@
       <c r="B6" s="3">
         <v>4300</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.49590986263312226</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -924,11 +984,21 @@
       <c r="B7" s="3">
         <v>4600</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.49590986263312226</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -960,11 +1030,21 @@
       <c r="B8" s="3">
         <v>5150</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.49590986263312226</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.1654728583078041E-3</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -996,11 +1076,21 @@
       <c r="B9" s="3">
         <v>5750</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.49590986263312226</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.4418780625775972E-2</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1032,11 +1122,21 @@
       <c r="B10" s="3">
         <v>6100</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.16653075617658078</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -1068,11 +1168,21 @@
       <c r="B11" s="3">
         <v>6200</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.22113738713919437</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -1104,11 +1214,21 @@
       <c r="B12" s="3">
         <v>6000</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.27161527780838823</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -1140,11 +1260,21 @@
       <c r="B13" s="3">
         <v>5850</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.24914964112284105</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1176,11 +1306,21 @@
       <c r="B14" s="3">
         <v>5800</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.13286168720017044</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -1212,11 +1352,21 @@
       <c r="B15" s="3">
         <v>5700</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.111</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.4566739397145144E-2</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -1248,11 +1398,21 @@
       <c r="B16" s="3">
         <v>5550</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -1284,11 +1444,21 @@
       <c r="B17" s="3">
         <v>5400</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.2519999999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1320,11 +1490,21 @@
       <c r="B18" s="3">
         <v>5300</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.1269999999999998</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1356,11 +1536,21 @@
       <c r="B19" s="3">
         <v>5500</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.702</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -1392,11 +1582,21 @@
       <c r="B20" s="3">
         <v>5650</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.5009999999999994</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -1428,11 +1628,21 @@
       <c r="B21" s="3">
         <v>5600</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E21" s="1">
+        <v>12.38</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -1464,11 +1674,21 @@
       <c r="B22" s="3">
         <v>5450</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.82651643772187067</v>
+      </c>
+      <c r="E22" s="1">
+        <v>13.038</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -1500,11 +1720,21 @@
       <c r="B23" s="3">
         <v>5200</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.74386479394968352</v>
+      </c>
+      <c r="E23" s="1">
+        <v>11.108000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -1536,11 +1766,21 @@
       <c r="B24" s="3">
         <v>4800</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.57856150640530946</v>
+      </c>
+      <c r="E24" s="1">
+        <v>11.305999999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -1572,11 +1812,21 @@
       <c r="B25" s="3">
         <v>4350</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.49590986263312226</v>
+      </c>
+      <c r="E25" s="1">
+        <v>11.846</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.78435918176738906</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -1611,7 +1861,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,11 +1965,21 @@
       <c r="B2" s="3">
         <v>3650</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.2826191725659458E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1751,11 +2011,21 @@
       <c r="B3" s="3">
         <v>3550</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.4980883124672017E-4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1787,11 +2057,21 @@
       <c r="B4" s="3">
         <v>3450</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.1058228824178298E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1823,11 +2103,21 @@
       <c r="B5" s="3">
         <v>3400</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5703361785526862E-4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.4684283604786989E-3</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1859,11 +2149,21 @@
       <c r="B6" s="3">
         <v>3500</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.6051856532402293E-4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.9030994938252556E-2</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1895,11 +2195,21 @@
       <c r="B7" s="3">
         <v>3750</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.7135574523684577E-4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.31515806022671339</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1931,11 +2241,21 @@
       <c r="B8" s="3">
         <v>4200</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.8916282008717724E-4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.52644377346292581</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1967,11 +2287,21 @@
       <c r="B9" s="3">
         <v>4650</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.7110085356580586E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.69032978496756514</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -2003,11 +2333,21 @@
       <c r="B10" s="3">
         <v>5000</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.2116457648356597E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.80086541922876309</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -2039,11 +2379,21 @@
       <c r="B11" s="3">
         <v>5050</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.8555042678290293E-4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.85687523417010114</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -2075,11 +2425,21 @@
       <c r="B12" s="3">
         <v>4900</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.2490441562336008E-4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.86062195578868494</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -2111,11 +2471,21 @@
       <c r="B13" s="3">
         <v>4800</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.1780707485033145E-4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.81225251434406665</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -2147,11 +2517,21 @@
       <c r="B14" s="3">
         <v>4800</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.4258404463817155E-5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.71028291421476797</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -2183,11 +2563,21 @@
       <c r="B15" s="3">
         <v>4750</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.2129202231908577E-5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.55690976278109594</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -2219,11 +2609,21 @@
       <c r="B16" s="3">
         <v>4750</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0709734077302861E-5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.35790741924345609</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -2255,11 +2655,21 @@
       <c r="B17" s="3">
         <v>4650</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.14488058243154886</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -2291,11 +2701,21 @@
       <c r="B18" s="3">
         <v>4550</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.0512860070967316E-2</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -2327,11 +2747,21 @@
       <c r="B19" s="3">
         <v>4500</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -2363,11 +2793,21 @@
       <c r="B20" s="3">
         <v>4650</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8.5677872618422887E-5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -2399,11 +2839,21 @@
       <c r="B21" s="3">
         <v>5100</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.3922654300493718E-4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2435,11 +2885,21 @@
       <c r="B22" s="3">
         <v>5000</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.76004784688995208</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7.4968138541120028E-5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -2471,11 +2931,21 @@
       <c r="B23" s="3">
         <v>4650</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.59114832535885176</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.2838936309211443E-5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -2507,11 +2977,21 @@
       <c r="B24" s="3">
         <v>4200</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.65957446808510634</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.3548670386514303E-5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -2543,11 +3023,21 @@
       <c r="B25" s="3">
         <v>3800</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.9277521339145146E-4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.17977434392121217</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -2582,7 +3072,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,11 +3176,21 @@
       <c r="B2" s="3">
         <v>3650</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.4218457155708819E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -2722,11 +3222,21 @@
       <c r="B3" s="3">
         <v>3500</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.7150032664688936E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -2758,11 +3268,21 @@
       <c r="B4" s="3">
         <v>3400</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.9974510832896018E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -2794,11 +3314,21 @@
       <c r="B5" s="3">
         <v>3400</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.9586068777912242E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -2830,11 +3360,21 @@
       <c r="B6" s="3">
         <v>3500</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.0696989493750873E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -2866,11 +3406,21 @@
       <c r="B7" s="3">
         <v>3800</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.1513820911826755E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.6966257465893814E-2</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -2902,11 +3452,21 @@
       <c r="B8" s="3">
         <v>4300</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.2731838968438412E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.16748580286367074</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -2938,11 +3498,21 @@
       <c r="B9" s="3">
         <v>4650</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8.8676598160067673E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.31200640615931646</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -2974,11 +3544,21 @@
       <c r="B10" s="3">
         <v>5050</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.6567958617587523E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.39059205548086601</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -3010,11 +3590,21 @@
       <c r="B11" s="3">
         <v>5250</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.5149347241707984E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.38908602032045492</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -3046,11 +3636,21 @@
       <c r="B12" s="3">
         <v>5000</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6.4012080580039196E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.33984234383150036</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -3082,11 +3682,21 @@
       <c r="B13" s="3">
         <v>4950</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.58735394600152E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.30950859174692735</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -3118,11 +3728,21 @@
       <c r="B14" s="3">
         <v>4950</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.11421931393443499</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.19413895194645861</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -3154,11 +3774,21 @@
       <c r="B15" s="3">
         <v>5000</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.11391944138027053</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.1287182538807955</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -3190,11 +3820,21 @@
       <c r="B16" s="3">
         <v>4950</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.1720197487496381E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.5253124104643732E-2</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -3226,11 +3866,21 @@
       <c r="B17" s="3">
         <v>4850</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.7970933781714198E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.807242192493333E-3</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -3262,11 +3912,21 @@
       <c r="B18" s="3">
         <v>4700</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.157722253756439E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -3298,11 +3958,21 @@
       <c r="B19" s="3">
         <v>4750</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.0174247373437717E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -3334,11 +4004,21 @@
       <c r="B20" s="3">
         <v>4950</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.1461129020166416E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -3370,11 +4050,21 @@
       <c r="B21" s="3">
         <v>5150</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9.103273965707431E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -3406,11 +4096,21 @@
       <c r="B22" s="3">
         <v>4950</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.85221484797036573</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.0302764182365351E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -3442,11 +4142,21 @@
       <c r="B23" s="3">
         <v>4650</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.66283377064361781</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.2155548177738746E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -3478,11 +4188,21 @@
       <c r="B24" s="3">
         <v>4200</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.4972208240069397E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -3514,11 +4234,21 @@
       <c r="B25" s="3">
         <v>3800</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.0862561982585969E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.19763669871661232</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -3553,7 +4283,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,11 +4387,21 @@
       <c r="B2" s="3">
         <v>3850</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.14880104527004595</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -3693,11 +4433,21 @@
       <c r="B3" s="3">
         <v>3750</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1239544622107033</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -3729,11 +4479,21 @@
       <c r="B4" s="3">
         <v>3650</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.11902798453514399</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -3765,11 +4525,21 @@
       <c r="B5" s="3">
         <v>3750</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.4074304135028333E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -3801,11 +4571,21 @@
       <c r="B6" s="3">
         <v>3850</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.7942552986409346E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -3837,11 +4617,21 @@
       <c r="B7" s="3">
         <v>4150</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.5101581827723213E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.071716659687479E-3</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -3873,11 +4663,21 @@
       <c r="B8" s="3">
         <v>4700</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.4651772996476493E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.6745862076565364E-2</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -3909,11 +4709,21 @@
       <c r="B9" s="3">
         <v>5150</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9.6334058025339217E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.13264129181084197</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -3945,11 +4755,21 @@
       <c r="B10" s="3">
         <v>5400</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.14300707913422508</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.24385280526598049</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -3981,11 +4801,21 @@
       <c r="B11" s="3">
         <v>5600</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.16376254377603805</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.17624284633298803</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -4017,11 +4847,21 @@
       <c r="B12" s="3">
         <v>5350</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.19872982553843188</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.18530109683438756</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -4053,11 +4893,21 @@
       <c r="B13" s="3">
         <v>5300</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.21695779293800133</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.18459583158853649</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -4089,11 +4939,21 @@
       <c r="B14" s="3">
         <v>5300</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.20499501997365402</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.22411272489512854</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -4125,11 +4985,21 @@
       <c r="B15" s="3">
         <v>5200</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1269317682841935</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.11378279299730383</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -4161,11 +5031,21 @@
       <c r="B16" s="3">
         <v>5100</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.9128441840789088E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.6742703075984983E-2</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -4197,11 +5077,21 @@
       <c r="B17" s="3">
         <v>5000</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.4461889411285916E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -4233,11 +5123,21 @@
       <c r="B18" s="3">
         <v>5000</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.9530485258051037E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -4269,11 +5169,21 @@
       <c r="B19" s="3">
         <v>5150</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.7067246420271379E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -4305,11 +5215,21 @@
       <c r="B20" s="3">
         <v>5400</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.344735630214301E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -4341,11 +5261,21 @@
       <c r="B21" s="3">
         <v>5300</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.9469053866337398</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.275904169299476E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -4377,11 +5307,21 @@
       <c r="B22" s="3">
         <v>5100</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.85221484797036573</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.772257504846155E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -4413,11 +5353,21 @@
       <c r="B23" s="3">
         <v>4850</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.66283377064361781</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.1521639017703185E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -4449,11 +5399,21 @@
       <c r="B24" s="3">
         <v>4500</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.6565923768112832E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -4485,11 +5445,21 @@
       <c r="B25" s="3">
         <v>4100</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.56814323198024386</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.3409443843509367E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.53564548812928936</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -4524,7 +5494,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4628,11 +5598,21 @@
       <c r="B2" s="3">
         <v>4100</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.24528503957246739</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -4664,11 +5644,21 @@
       <c r="B3" s="3">
         <v>4000</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.23311878166065134</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -4700,11 +5690,21 @@
       <c r="B4" s="3">
         <v>3800</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.21372345324665587</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -4736,11 +5736,21 @@
       <c r="B5" s="3">
         <v>3850</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.23252974628639969</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -4772,11 +5782,21 @@
       <c r="B6" s="3">
         <v>3900</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.2229016953509044</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -4808,11 +5828,21 @@
       <c r="B7" s="3">
         <v>4300</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.26398423527143822</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -4844,11 +5874,21 @@
       <c r="B8" s="3">
         <v>4850</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.26586914846904347</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.838553030803929E-2</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -4880,11 +5920,21 @@
       <c r="B9" s="3">
         <v>5450</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.26627611836398102</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.13161277999397586</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -4916,11 +5966,21 @@
       <c r="B10" s="3">
         <v>5750</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.30053655767727289</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.35333788817137946</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -4952,11 +6012,21 @@
       <c r="B11" s="3">
         <v>5800</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.32819980079894612</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.53891815249891639</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -4988,11 +6058,21 @@
       <c r="B12" s="3">
         <v>5550</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.35708395360543194</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.60131208721780205</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -5024,11 +6104,21 @@
       <c r="B13" s="3">
         <v>5450</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.35709466333950929</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.52535648954223879</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -5060,11 +6150,21 @@
       <c r="B14" s="3">
         <v>5450</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.3089008599916464</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.35126617151169198</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -5096,11 +6196,21 @@
       <c r="B15" s="3">
         <v>5550</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.25353153481199059</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.11655242838986475</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -5132,11 +6242,21 @@
       <c r="B16" s="3">
         <v>5450</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.24292889807546078</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.3435376398592408E-3</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -5168,11 +6288,21 @@
       <c r="B17" s="3">
         <v>5350</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.2876099086459683</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -5204,11 +6334,21 @@
       <c r="B18" s="3">
         <v>5300</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.40990436207468967</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -5240,11 +6380,21 @@
       <c r="B19" s="3">
         <v>5650</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.4159125228920566</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -5276,11 +6426,21 @@
       <c r="B20" s="3">
         <v>5600</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.33858824285392991</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -5312,11 +6472,21 @@
       <c r="B21" s="3">
         <v>5450</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.31785419768027157</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -5348,11 +6518,21 @@
       <c r="B22" s="3">
         <v>5250</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.23788461332505112</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -5384,11 +6564,21 @@
       <c r="B23" s="3">
         <v>4950</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.20137512985552569</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -5420,11 +6610,21 @@
       <c r="B24" s="3">
         <v>4600</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.1938783160014137</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -5456,11 +6656,21 @@
       <c r="B25" s="3">
         <v>4300</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.18277232176325059</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.56661691002943704</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -5495,7 +6705,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,11 +6809,21 @@
       <c r="B2" s="3">
         <v>4200</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.59036888408705035</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.20309939704197141</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -5635,11 +6855,21 @@
       <c r="B3" s="3">
         <v>4100</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.59036888408705035</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.20680496503271822</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -5671,11 +6901,21 @@
       <c r="B4" s="3">
         <v>3900</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.59036888408705035</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.20729761280027417</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -5707,11 +6947,21 @@
       <c r="B5" s="3">
         <v>3900</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.59036888408705035</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.20320649438274446</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -5743,11 +6993,21 @@
       <c r="B6" s="3">
         <v>4050</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.59036888408705035</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.17462221413042314</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -5779,11 +7039,21 @@
       <c r="B7" s="3">
         <v>4400</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.59036888408705035</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.18050185813886238</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -5815,11 +7085,21 @@
       <c r="B8" s="3">
         <v>4950</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.59036888408705035</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.17732106711790344</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -5851,11 +7131,21 @@
       <c r="B9" s="3">
         <v>5450</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.1760251892945498</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.4237542150618209E-2</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -5887,11 +7177,21 @@
       <c r="B10" s="3">
         <v>5900</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.17155923018431449</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.8835063437139562E-2</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -5923,11 +7223,21 @@
       <c r="B11" s="3">
         <v>6000</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.1703811594358112</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.4499224942880859E-2</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -5959,11 +7269,21 @@
       <c r="B12" s="3">
         <v>5850</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.13692395017831707</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.3507445690902811E-2</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -5995,11 +7315,21 @@
       <c r="B13" s="3">
         <v>5700</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.10982832296274084</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.8144491217243734E-2</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -6031,11 +7361,21 @@
       <c r="B14" s="3">
         <v>5650</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.11145620254249086</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.3297188489483467E-2</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -6067,11 +7407,21 @@
       <c r="B15" s="3">
         <v>5700</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9.1803840510640111E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8.5219550540336037E-4</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -6103,11 +7453,21 @@
       <c r="B16" s="3">
         <v>5650</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.9104987523159804E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -6139,11 +7499,21 @@
       <c r="B17" s="3">
         <v>5500</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.5000267743351931E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -6175,11 +7545,21 @@
       <c r="B18" s="3">
         <v>5450</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.3744337228106629E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -6211,11 +7591,21 @@
       <c r="B19" s="3">
         <v>5750</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.9364055990489752E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -6247,11 +7637,21 @@
       <c r="B20" s="3">
         <v>5650</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.1503111177749458E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -6283,11 +7683,21 @@
       <c r="B21" s="3">
         <v>5550</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.98394814014508403</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.7861801591466482E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -6319,11 +7729,21 @@
       <c r="B22" s="3">
         <v>5400</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.88555332613057558</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.3117389395221313E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -6355,11 +7775,21 @@
       <c r="B23" s="3">
         <v>5100</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.6887636981015588</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.5545607402568194E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -6391,11 +7821,21 @@
       <c r="B24" s="3">
         <v>4750</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.59036888408705035</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.0019384618679916E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -6427,11 +7867,21 @@
       <c r="B25" s="3">
         <v>4350</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.59036888408705035</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.74412303342508E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.81727361424985612</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -7596,7 +9046,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7722,10 +9172,10 @@
         <v>0.46445659603554335</v>
       </c>
       <c r="E2" s="1">
-        <v>0.2912726377004059</v>
+        <v>0.111177749456481</v>
       </c>
       <c r="F2" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -7814,10 +9264,10 @@
         <v>0.46445659603554335</v>
       </c>
       <c r="E3" s="1">
-        <v>0.2707634969423709</v>
+        <v>0.12046308890150256</v>
       </c>
       <c r="F3" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -7906,10 +9356,10 @@
         <v>0.46445659603554335</v>
       </c>
       <c r="E4" s="1">
-        <v>0.25011512964133098</v>
+        <v>0.13326122112387948</v>
       </c>
       <c r="F4" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -7998,10 +9448,10 @@
         <v>0.46445659603554335</v>
       </c>
       <c r="E5" s="1">
-        <v>0.23376136570528955</v>
+        <v>0.14584515866471034</v>
       </c>
       <c r="F5" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -8090,10 +9540,10 @@
         <v>0.46445659603554335</v>
       </c>
       <c r="E6" s="1">
-        <v>0.22229124050849816</v>
+        <v>0.14317843487946194</v>
       </c>
       <c r="F6" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -8182,10 +9632,10 @@
         <v>0.46445659603554335</v>
       </c>
       <c r="E7" s="1">
-        <v>0.21121737547256703</v>
+        <v>0.13459993788354235</v>
       </c>
       <c r="F7" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -8274,13 +9724,13 @@
         <v>0.46445659603554335</v>
       </c>
       <c r="E8" s="1">
-        <v>0.20910755785933832</v>
+        <v>0.13545671660972658</v>
       </c>
       <c r="F8" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0799374077094307E-2</v>
+        <v>7.9856596066676944E-3</v>
       </c>
       <c r="H8" s="13">
         <v>262.15958333333333</v>
@@ -8366,13 +9816,13 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E9" s="1">
-        <v>0.20137512985552569</v>
+        <v>0.16419093313913014</v>
       </c>
       <c r="F9" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G9" s="1">
-        <v>4.6341803862796523E-2</v>
+        <v>4.7671522711744872E-2</v>
       </c>
       <c r="H9" s="13">
         <v>262.15958333333333</v>
@@ -8458,13 +9908,13 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E10" s="1">
-        <v>0.20896833131633341</v>
+        <v>0.21017853126706862</v>
       </c>
       <c r="F10" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G10" s="1">
-        <v>7.9459884365885733E-2</v>
+        <v>0.11358443714690822</v>
       </c>
       <c r="H10" s="13">
         <v>262.15958333333333</v>
@@ -8550,13 +10000,13 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E11" s="1">
-        <v>0.18176560675998416</v>
+        <v>0.20680496503271822</v>
       </c>
       <c r="F11" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G11" s="1">
-        <v>9.5673638507482422E-2</v>
+        <v>0.17075500113870951</v>
       </c>
       <c r="H11" s="13">
         <v>262.15958333333333</v>
@@ -8642,13 +10092,13 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E12" s="1">
-        <v>0.13631349533591081</v>
+        <v>0.2090111702526426</v>
       </c>
       <c r="F12" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G12" s="1">
-        <v>9.4894908131855207E-2</v>
+        <v>0.25755405196923281</v>
       </c>
       <c r="H12" s="13">
         <v>262.15958333333333</v>
@@ -8734,13 +10184,13 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E13" s="1">
-        <v>0.11420860420035769</v>
+        <v>0.27029226864296957</v>
       </c>
       <c r="F13" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G13" s="1">
-        <v>8.8253660400091097E-2</v>
+        <v>0.21527486978305749</v>
       </c>
       <c r="H13" s="13">
         <v>262.15958333333333</v>
@@ -8826,13 +10276,13 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E14" s="1">
-        <v>9.0818544975528256E-2</v>
+        <v>0.31268139612093432</v>
       </c>
       <c r="F14" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G14" s="1">
-        <v>8.4646522528082052E-2</v>
+        <v>0.15289562809012702</v>
       </c>
       <c r="H14" s="13">
         <v>262.15958333333333</v>
@@ -8918,13 +10368,13 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E15" s="1">
-        <v>8.0933460422177722E-2</v>
+        <v>0.32754650702023069</v>
       </c>
       <c r="F15" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G15" s="1">
-        <v>3.7158662640777551E-2</v>
+        <v>6.7301405387932611E-2</v>
       </c>
       <c r="H15" s="13">
         <v>262.15958333333333</v>
@@ -9010,13 +10460,13 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E16" s="1">
-        <v>8.7648463688646594E-2</v>
+        <v>0.38367622331937501</v>
       </c>
       <c r="F16" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1.719084036761951E-3</v>
       </c>
       <c r="H16" s="13">
         <v>262.15958333333333</v>
@@ -9102,10 +10552,10 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E17" s="1">
-        <v>9.3324622749617128E-2</v>
+        <v>0.4822593255009478</v>
       </c>
       <c r="F17" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -9194,10 +10644,10 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E18" s="1">
-        <v>8.9104987523159804E-2</v>
+        <v>0.51345678086813096</v>
       </c>
       <c r="F18" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -9286,10 +10736,10 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E19" s="1">
-        <v>9.0743576836987139E-2</v>
+        <v>0.45526008589206729</v>
       </c>
       <c r="F19" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -9378,10 +10828,10 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E20" s="1">
-        <v>9.9664785323380412E-2</v>
+        <v>0.31524102256540965</v>
       </c>
       <c r="F20" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -9470,10 +10920,10 @@
         <v>0.77409432672590561</v>
       </c>
       <c r="E21" s="1">
-        <v>9.5766442119242179E-2</v>
+        <v>0.1909117196620008</v>
       </c>
       <c r="F21" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -9562,10 +11012,10 @@
         <v>0.69668489405331513</v>
       </c>
       <c r="E22" s="1">
-        <v>9.7672774785002081E-2</v>
+        <v>0.1602925899349919</v>
       </c>
       <c r="F22" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -9654,10 +11104,10 @@
         <v>0.54186602870813394</v>
       </c>
       <c r="E23" s="1">
-        <v>9.1718162638021697E-2</v>
+        <v>0.1224015507694944</v>
       </c>
       <c r="F23" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -9746,10 +11196,10 @@
         <v>0.46445659603554335</v>
       </c>
       <c r="E24" s="1">
-        <v>8.9694022897411449E-2</v>
+        <v>8.1693851541666224E-2</v>
       </c>
       <c r="F24" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -9838,10 +11288,10 @@
         <v>0.46445659603554335</v>
       </c>
       <c r="E25" s="1">
-        <v>9.8947233140201138E-2</v>
+        <v>4.9511100639371121E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>0.73767689318445262</v>
+        <v>0.77559478639392243</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -9927,10 +11377,14 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -10031,11 +11485,21 @@
       <c r="B2" s="3">
         <v>4150</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.55841950918351579</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.27462971094427724</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -10067,11 +11531,21 @@
       <c r="B3" s="3">
         <v>4100</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.55841950918351579</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.25017938804579481</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -10103,11 +11577,21 @@
       <c r="B4" s="3">
         <v>4050</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.55841950918351579</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.18024482452100712</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -10139,11 +11623,21 @@
       <c r="B5" s="3">
         <v>3900</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.55841950918351579</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.18191554303706639</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -10175,11 +11669,21 @@
       <c r="B6" s="3">
         <v>4100</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.55841950918351579</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.20681567476679552</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -10211,11 +11715,21 @@
       <c r="B7" s="3">
         <v>4350</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.55841950918351579</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.22102749188737644</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7.9195409898691598E-3</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -10247,11 +11761,21 @@
       <c r="B8" s="3">
         <v>4900</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.55841950918351579</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2201385839589603</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.5388153013172302E-2</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -10283,11 +11807,21 @@
       <c r="B9" s="3">
         <v>5300</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.15901813157979289</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6.115972053864633E-2</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -10319,11 +11853,21 @@
       <c r="B10" s="3">
         <v>5650</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.12737086738136291</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8.377963399672346E-2</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -10355,11 +11899,21 @@
       <c r="B11" s="3">
         <v>5750</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.1078148929562079</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.4365959197466931E-2</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -10391,11 +11945,21 @@
       <c r="B12" s="3">
         <v>5500</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.6301928823107327E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.10726643598615918</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -10427,11 +11991,21 @@
       <c r="B13" s="3">
         <v>5500</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.2767716577597387E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.10053703009866367</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -10463,11 +12037,21 @@
       <c r="B14" s="3">
         <v>5550</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8.0965589624409612E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.17993079584775087</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -10499,11 +12083,21 @@
       <c r="B15" s="3">
         <v>5500</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.10236363831086073</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.14040655602818122</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -10535,11 +12129,21 @@
       <c r="B16" s="3">
         <v>5400</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.17320852923221913</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.5710003746721621E-2</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -10571,11 +12175,21 @@
       <c r="B17" s="3">
         <v>5300</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.21569404431687961</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -10607,11 +12221,21 @@
       <c r="B18" s="3">
         <v>5150</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.21869276985852443</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -10643,11 +12267,21 @@
       <c r="B19" s="3">
         <v>5150</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.25240701273387384</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -10679,11 +12313,21 @@
       <c r="B20" s="3">
         <v>5350</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.30885802105533716</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -10715,11 +12359,21 @@
       <c r="B21" s="3">
         <v>5550</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.93069918197252655</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.28627119188630545</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -10751,11 +12405,21 @@
       <c r="B22" s="3">
         <v>5350</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.8376292637752738</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.28977327492958349</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -10787,11 +12451,21 @@
       <c r="B23" s="3">
         <v>5100</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.65148942738076854</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.4444753836762233</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -10823,11 +12497,21 @@
       <c r="B24" s="3">
         <v>4650</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.55841950918351579</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.49209086138391184</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -10859,11 +12543,21 @@
       <c r="B25" s="3">
         <v>4350</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.55841950918351579</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.42228481466805179</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.65234287048541906</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -10898,10 +12592,13 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -11002,11 +12699,21 @@
       <c r="B2" s="3">
         <v>4000</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.16729675602154798</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -11038,11 +12745,21 @@
       <c r="B3" s="3">
         <v>3900</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.18358626155312563</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -11074,11 +12791,21 @@
       <c r="B4" s="3">
         <v>3850</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.17377614513831618</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -11110,11 +12837,21 @@
       <c r="B5" s="3">
         <v>3700</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.15034324697717755</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -11146,11 +12883,21 @@
       <c r="B6" s="3">
         <v>3950</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.18267593415655486</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.3488565152550344E-2</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -11182,11 +12929,21 @@
       <c r="B7" s="3">
         <v>4200</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.19035481348998104</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.33754288526950682</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -11218,11 +12975,21 @@
       <c r="B8" s="3">
         <v>4700</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.22967024728775984</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.59159265054841725</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -11254,11 +13021,21 @@
       <c r="B9" s="3">
         <v>5100</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.33040600601887055</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.77334538161461663</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -11290,11 +13067,21 @@
       <c r="B10" s="3">
         <v>5400</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.329999036123933</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.80089480528067347</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -11326,11 +13113,21 @@
       <c r="B11" s="3">
         <v>5500</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.29345742345217568</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.73550349326692088</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -11362,11 +13159,21 @@
       <c r="B12" s="3">
         <v>5300</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.27032439784520151</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.71269991698440338</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -11398,11 +13205,21 @@
       <c r="B13" s="3">
         <v>5250</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.26272048665031644</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.65130510803047337</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -11434,11 +13251,21 @@
       <c r="B14" s="3">
         <v>5300</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.26287042292739871</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.57504830332282786</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -11470,11 +13297,21 @@
       <c r="B15" s="3">
         <v>5250</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.266169021023208</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.47608342700137379</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -11506,11 +13343,21 @@
       <c r="B16" s="3">
         <v>5150</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.23905197433947714</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.32511258531138193</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -11542,11 +13389,21 @@
       <c r="B17" s="3">
         <v>5100</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.12032386235849762</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.11758094020673086</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -11578,11 +13435,21 @@
       <c r="B18" s="3">
         <v>4950</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.359440095102438E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.7337770627171812E-3</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -11614,11 +13481,21 @@
       <c r="B19" s="3">
         <v>4950</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.6151135767298896E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -11650,11 +13527,21 @@
       <c r="B20" s="3">
         <v>5050</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.7808252921079972E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -11686,11 +13573,21 @@
       <c r="B21" s="3">
         <v>5300</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.9540338213402158E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -11722,11 +13619,21 @@
       <c r="B22" s="3">
         <v>5150</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.76004784688995208</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.0244289034303276E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -11758,11 +13665,21 @@
       <c r="B23" s="3">
         <v>4850</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.59114832535885176</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.1323080547909996E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -11794,11 +13711,21 @@
       <c r="B24" s="3">
         <v>4450</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.4104719779807866E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -11830,11 +13757,21 @@
       <c r="B25" s="3">
         <v>4150</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8.3428828462189276E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.75211187738185581</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -11869,10 +13806,14 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -11973,11 +13914,21 @@
       <c r="B2" s="3">
         <v>3650</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.31025028648538655</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -12009,11 +13960,21 @@
       <c r="B3" s="3">
         <v>3600</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.31515534469279127</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -12045,11 +14006,21 @@
       <c r="B4" s="3">
         <v>3550</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.27907425058635793</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -12081,11 +14052,21 @@
       <c r="B5" s="3">
         <v>3400</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.28258704336371326</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5845032655250184E-2</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -12117,11 +14098,21 @@
       <c r="B6" s="3">
         <v>3550</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.29559937026763622</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.15809695927827858</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -12153,11 +14144,21 @@
       <c r="B7" s="3">
         <v>3800</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.36785794608719863</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.39104019277250057</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -12189,11 +14190,21 @@
       <c r="B8" s="3">
         <v>4200</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.42840007282619169</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.61524107582336041</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -12225,11 +14236,21 @@
       <c r="B9" s="3">
         <v>4600</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.47337024621678642</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.79205695016860245</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -12261,11 +14282,21 @@
       <c r="B10" s="3">
         <v>5000</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.48978826855729168</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.91069578824410991</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -12297,11 +14328,21 @@
       <c r="B11" s="3">
         <v>5100</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.45335375322630739</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.969511971142897</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -12333,11 +14374,21 @@
       <c r="B12" s="3">
         <v>4950</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.40577040472085074</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.97320726717063755</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -12369,11 +14420,21 @@
       <c r="B13" s="3">
         <v>4900</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.36083236053248796</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.92230327874874196</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -12405,11 +14466,21 @@
       <c r="B14" s="3">
         <v>4850</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.31391301553982415</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.8155731382099487</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -12441,11 +14512,21 @@
       <c r="B15" s="3">
         <v>4800</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.2594540177567391</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.65510325523990032</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -12477,11 +14558,21 @@
       <c r="B16" s="3">
         <v>4700</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.20137512985552569</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.44604353543590536</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -12513,11 +14604,21 @@
       <c r="B17" s="3">
         <v>4650</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.12199458087455688</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.21418758586237044</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -12549,11 +14650,21 @@
       <c r="B18" s="3">
         <v>4600</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.5230098636650848E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.7334978952240319E-2</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -12585,11 +14696,21 @@
       <c r="B19" s="3">
         <v>4600</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8.233643558630438E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.0405821376883461E-4</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -12621,11 +14742,21 @@
       <c r="B20" s="3">
         <v>4600</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.11901727480106668</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -12657,11 +14788,21 @@
       <c r="B21" s="3">
         <v>4650</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.8444976076555023</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.12793848328745996</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -12693,11 +14834,21 @@
       <c r="B22" s="3">
         <v>5000</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.76004784688995208</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.11998115086802394</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -12729,11 +14880,21 @@
       <c r="B23" s="3">
         <v>4650</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.59114832535885176</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.11141336360618166</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -12765,11 +14926,21 @@
       <c r="B24" s="3">
         <v>4200</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8.6748846026153167E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -12801,11 +14972,21 @@
       <c r="B25" s="3">
         <v>3850</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.50669856459330143</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.8667923275465064E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.44187229500404446</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -12840,7 +15021,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12944,11 +15125,21 @@
       <c r="B2" s="3">
         <v>3500</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.48618613983639453</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.2552665117325134E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -12980,11 +15171,21 @@
       <c r="B3" s="3">
         <v>3450</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.48618613983639453</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.1163291315476639E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -13016,11 +15217,21 @@
       <c r="B4" s="3">
         <v>3350</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.48618613983639453</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.8678633009542368E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -13052,11 +15263,21 @@
       <c r="B5" s="3">
         <v>3200</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.48618613983639453</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.2148586850588494E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5272004642996199E-3</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -13088,11 +15309,21 @@
       <c r="B6" s="3">
         <v>3350</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.48618613983639453</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.2215736883253195E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.0261682792262651E-2</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -13124,11 +15355,21 @@
       <c r="B7" s="3">
         <v>3500</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.48618613983639453</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.3950713803776255E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.1822302544097448E-2</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -13160,11 +15401,21 @@
       <c r="B8" s="3">
         <v>3950</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.48618613983639453</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.2030779775738162E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.3447645075265026E-2</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -13196,11 +15447,21 @@
       <c r="B9" s="3">
         <v>4350</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.0692063016075305E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.14656293390342273</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -13232,11 +15493,21 @@
       <c r="B10" s="3">
         <v>4650</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.857935377464577E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.20183809754699933</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -13268,11 +15539,21 @@
       <c r="B11" s="3">
         <v>4850</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.2857464149165176E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.22266546183853836</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -13304,11 +15585,21 @@
       <c r="B12" s="3">
         <v>4650</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.0587000524776968E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.20356452809673889</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -13340,11 +15631,21 @@
       <c r="B13" s="3">
         <v>4600</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.8972722307305106E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.16465004885431128</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -13376,11 +15677,21 @@
       <c r="B14" s="3">
         <v>4550</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.7931843252332036E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.14097223752745761</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -13412,11 +15723,21 @@
       <c r="B15" s="3">
         <v>4550</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.10315615863258114</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.11338608129651261</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -13448,11 +15769,21 @@
       <c r="B16" s="3">
         <v>4500</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.10778276375397598</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7.2936180841763468E-2</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -13484,11 +15815,21 @@
       <c r="B17" s="3">
         <v>4450</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8.5999164640741962E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.6246299194087528E-2</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -13520,11 +15861,21 @@
       <c r="B18" s="3">
         <v>4350</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.1120452379167418E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.2847655360383193E-2</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -13556,11 +15907,21 @@
       <c r="B19" s="3">
         <v>4250</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.2975271224015508E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.0120703208222219E-4</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -13592,11 +15953,21 @@
       <c r="B20" s="3">
         <v>4200</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.2204170370449703E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -13628,11 +15999,21 @@
       <c r="B21" s="3">
         <v>4150</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.81031023306065753</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.4303278249601062E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -13664,11 +16045,21 @@
       <c r="B22" s="3">
         <v>4200</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.72927920975459171</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.8919173636918596E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -13700,11 +16091,21 @@
       <c r="B23" s="3">
         <v>4400</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.56721716314246029</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.441037559037409E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -13736,11 +16137,21 @@
       <c r="B24" s="3">
         <v>3950</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.48618613983639453</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.2903194713675256E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -13772,11 +16183,21 @@
       <c r="B25" s="3">
         <v>3550</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.48618613983639453</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.8563717562892909E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.28795750394022535</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -13811,7 +16232,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13915,11 +16336,21 @@
       <c r="B2" s="3">
         <v>3700</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.42344497607655496</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.8099450590641834E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -13951,11 +16382,21 @@
       <c r="B3" s="3">
         <v>3550</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.42344497607655496</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.7810287770554656E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -13987,11 +16428,21 @@
       <c r="B4" s="3">
         <v>3450</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.42344497607655496</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.786672806914204E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.6845554257671598E-2</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -14023,11 +16474,21 @@
       <c r="B5" s="3">
         <v>3400</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.42344497607655496</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.8113051952920007E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.2387984043373817E-2</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -14059,11 +16520,21 @@
       <c r="B6" s="3">
         <v>3150</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.42344497607655496</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.9770169106701079E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.21186608776144403</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -14095,11 +16566,21 @@
       <c r="B7" s="3">
         <v>3500</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.42344497607655496</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.9191843466526727E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.42451825241149288</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -14131,11 +16612,21 @@
       <c r="B8" s="3">
         <v>4000</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.42344497607655496</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.4674049243357282E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.61921553934425033</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -14167,11 +16658,21 @@
       <c r="B9" s="3">
         <v>4350</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.67887933342615E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.7713030510068396</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -14203,11 +16704,21 @@
       <c r="B10" s="3">
         <v>4700</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.6681695993488473E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.87235433701393639</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -14239,11 +16750,21 @@
       <c r="B11" s="3">
         <v>4850</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8.8890792841613726E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.92333913707858561</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -14275,11 +16796,21 @@
       <c r="B12" s="3">
         <v>4750</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.1170252642626883E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.92527126999169851</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -14311,11 +16842,21 @@
       <c r="B13" s="3">
         <v>4750</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.2680325147526586E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.878679684687663</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -14347,11 +16888,21 @@
       <c r="B14" s="3">
         <v>4800</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.1769997750955843E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.78273422520000879</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -14383,11 +16934,21 @@
       <c r="B15" s="3">
         <v>4850</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9.7458580103456025E-3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.63950660818842342</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -14419,11 +16980,21 @@
       <c r="B16" s="3">
         <v>4800</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.9533376886251903E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.45632130709158897</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -14455,11 +17026,21 @@
       <c r="B17" s="3">
         <v>4700</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.7538474719672703E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.25418200251250739</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -14491,11 +17072,21 @@
       <c r="B18" s="3">
         <v>4600</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.27989890011031E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7.5147481248025616E-2</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -14527,11 +17118,21 @@
       <c r="B19" s="3">
         <v>4500</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.9478971437139216E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.9408091449393547E-2</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -14563,11 +17164,21 @@
       <c r="B20" s="3">
         <v>4400</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.6289505531577649E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -14599,11 +17210,21 @@
       <c r="B21" s="3">
         <v>4400</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.70574162679425845</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.1197455367183231E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -14635,11 +17256,21 @@
       <c r="B22" s="3">
         <v>4400</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.63516746411483249</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.9797371831257429E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -14671,11 +17302,21 @@
       <c r="B23" s="3">
         <v>4550</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.49401913875598091</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.0954023111606133E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -14707,11 +17348,21 @@
       <c r="B24" s="3">
         <v>4250</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.42344497607655496</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.6530902937680056E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -14743,11 +17394,21 @@
       <c r="B25" s="3">
         <v>3800</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.42344497607655496</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.0811904940400325E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.1942593627258854</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -14782,7 +17443,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14886,11 +17547,21 @@
       <c r="B2" s="3">
         <v>3700</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.46534959098626327</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.8260953380527565E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -14922,11 +17593,21 @@
       <c r="B3" s="3">
         <v>3550</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.68085106382978722</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.46534959098626327</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.712657834705965E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -14958,11 +17639,21 @@
       <c r="B4" s="3">
         <v>3450</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.46534959098626327</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.15417733177685197</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.2193815705375444E-2</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -14994,11 +17685,21 @@
       <c r="B5" s="3">
         <v>3400</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.46534959098626327</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.18115515191757786</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.4621323988568823E-2</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -15030,11 +17731,21 @@
       <c r="B6" s="3">
         <v>3150</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.46534959098626327</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.15006479389116767</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.20409347703112718</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -15066,11 +17777,21 @@
       <c r="B7" s="3">
         <v>3500</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.46534959098626327</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.1171752005397706</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.40354395786040154</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -15102,11 +17823,21 @@
       <c r="B8" s="3">
         <v>4000</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.46534959098626327</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.18407890932068155</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.58134426494464408</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -15138,11 +17869,21 @@
       <c r="B9" s="3">
         <v>4400</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.23251903655232237</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.70856383017800595</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -15174,11 +17915,21 @@
       <c r="B10" s="3">
         <v>4850</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.25606974178831138</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.76715961768746466</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -15210,11 +17961,21 @@
       <c r="B11" s="3">
         <v>5050</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.28920565902348644</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.78950771016537002</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -15246,11 +18007,21 @@
       <c r="B12" s="3">
         <v>4950</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.34138348344810598</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.76084161652671556</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -15282,11 +18053,21 @@
       <c r="B13" s="3">
         <v>4950</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.41829008385721783</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.68922046150794525</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -15318,11 +18099,21 @@
       <c r="B14" s="3">
         <v>4950</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.44977670204448822</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.6483003842226287</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -15354,11 +18145,21 @@
       <c r="B15" s="3">
         <v>5100</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.39578893256080455</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.57680411992447778</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -15390,11 +18191,21 @@
       <c r="B16" s="3">
         <v>4950</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.30636265301532561</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.42058052145549119</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -15426,11 +18237,21 @@
       <c r="B17" s="3">
         <v>4850</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.34782003362856495</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.20153689051491711</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -15462,11 +18283,21 @@
       <c r="B18" s="3">
         <v>4800</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.7087273622995941</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8.4000029386051903E-2</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -15498,11 +18329,21 @@
       <c r="B19" s="3">
         <v>4700</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.60270099493429574</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6.9351082508687248E-3</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -15534,11 +18375,21 @@
       <c r="B20" s="3">
         <v>4600</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.11549377228963405</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -15570,11 +18421,21 @@
       <c r="B21" s="3">
         <v>4550</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.77558265164377216</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.9859595386246559E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -15606,11 +18467,21 @@
       <c r="B22" s="3">
         <v>4650</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.6980243864793948</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.12616066743062768</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -15642,11 +18513,21 @@
       <c r="B23" s="3">
         <v>4900</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.54290785615064052</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.10647617619654504</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -15678,11 +18559,21 @@
       <c r="B24" s="3">
         <v>4500</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.46534959098626327</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6.9859595386246559E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -15714,11 +18605,21 @@
       <c r="B25" s="3">
         <v>4000</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.46534959098626327</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.1122487228642113E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.17268610789129146</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -15753,7 +18654,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15857,11 +18758,21 @@
       <c r="B2" s="3">
         <v>3700</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.44451304213613202</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.156651280348709E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -15893,11 +18804,21 @@
       <c r="B3" s="3">
         <v>3550</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.44451304213613202</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.7309821897122293E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -15929,11 +18850,21 @@
       <c r="B4" s="3">
         <v>3450</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.44451304213613202</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.6373148554721385E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -15965,11 +18896,21 @@
       <c r="B5" s="3">
         <v>3400</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.44451304213613202</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.3440716267015089E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.757741388050162E-2</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -16001,11 +18942,21 @@
       <c r="B6" s="3">
         <v>3150</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.44451304213613202</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.9063326657599092E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.13600599475458974</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -16037,11 +18988,21 @@
       <c r="B7" s="3">
         <v>3500</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.44451304213613202</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.3310164608612763E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.31654655117948266</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -16073,11 +19034,21 @@
       <c r="B8" s="3">
         <v>4000</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.44451304213613202</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.2574941364205923E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.48292303058353353</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -16109,11 +19080,21 @@
       <c r="B9" s="3">
         <v>4400</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="5">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.12562518072676254</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.59611810254262809</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -16145,11 +19126,21 @@
       <c r="B10" s="3">
         <v>4850</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.1524316451222516</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.7634569751467466</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -16181,11 +19172,21 @@
       <c r="B11" s="3">
         <v>5050</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.16340912255148704</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.89490813185521489</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -16217,11 +19218,21 @@
       <c r="B12" s="3">
         <v>4950</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.17570389727223071</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.9218404484311522</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -16253,11 +19264,21 @@
       <c r="B13" s="3">
         <v>4950</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.19886905208143679</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.87716630301427423</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -16289,11 +19310,21 @@
       <c r="B14" s="3">
         <v>4950</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.21447313463206708</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.7782895848485516</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -16325,11 +19356,21 @@
       <c r="B15" s="3">
         <v>5100</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.20958949589281697</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.63373959550099546</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -16361,11 +19402,21 @@
       <c r="B16" s="3">
         <v>4950</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.18705621539417178</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.44579375399466642</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -16397,11 +19448,21 @@
       <c r="B17" s="3">
         <v>4850</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.14726955329699162</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.23240693804685608</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -16433,11 +19494,21 @@
       <c r="B18" s="3">
         <v>4800</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.2006468679382689E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.4370146709864171E-2</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -16469,11 +19540,21 @@
       <c r="B19" s="3">
         <v>4700</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.8099450590641834E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.1352125713530067E-3</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -16505,11 +19586,21 @@
       <c r="B20" s="3">
         <v>4600</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.6685765692437855E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -16541,11 +19632,21 @@
       <c r="B21" s="3">
         <v>4550</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.74085507022688679</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.4650916217750314E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -16577,11 +19678,21 @@
       <c r="B22" s="3">
         <v>4650</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.66676956320419811</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.1919934028038082E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -16613,11 +19724,21 @@
       <c r="B23" s="3">
         <v>4900</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.51859854915882075</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8.3964315166054418E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -16649,11 +19770,21 @@
       <c r="B24" s="3">
         <v>4500</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.44451304213613202</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.933192678825785E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -16685,11 +19816,21 @@
       <c r="B25" s="3">
         <v>4000</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="5">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.44451304213613202</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.0657042185642525E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.15961873629260237</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
